--- a/src/conf/xlsx/column-and-parameter-descriptions_old.xlsx
+++ b/src/conf/xlsx/column-and-parameter-descriptions_old.xlsx
@@ -67,45 +67,45 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="1F497D"/>
+        <a:srgbClr val="44546A"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="EEECE1"/>
+        <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4F81BD"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="C0504D"/>
+        <a:srgbClr val="ED7D31"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="9BBB59"/>
+        <a:srgbClr val="A5A5A5"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="8064A2"/>
+        <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4BACC6"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="F79646"/>
+        <a:srgbClr val="70AD47"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0000FF"/>
+        <a:srgbClr val="0563C1"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="800080"/>
+        <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Jpan" typeface="æ¸¸ã´ã·ãã¯ Light"/>
+        <a:font script="Hang" typeface="ë§ì ê³ ë"/>
+        <a:font script="Hans" typeface="ç­çº¿ Light"/>
+        <a:font script="Hant" typeface="æ°ç´°æé«"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
         <a:font script="Thai" typeface="Tahoma"/>
@@ -132,15 +132,32 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Jpan" typeface="æ¸¸ã´ã·ãã¯"/>
+        <a:font script="Hang" typeface="ë§ì ê³ ë"/>
+        <a:font script="Hans" typeface="ç­çº¿"/>
+        <a:font script="Hant" typeface="æ°ç´°æé«"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
         <a:font script="Thai" typeface="Tahoma"/>
@@ -167,6 +184,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -178,201 +212,142 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="50000"/>
-                <a:satMod val="300000"/>
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="35000">
+            <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:tint val="37000"/>
-                <a:satMod val="300000"/>
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
-                <a:satMod val="350000"/>
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="100000"/>
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
                 <a:shade val="100000"/>
-                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="50000"/>
-                <a:shade val="100000"/>
-                <a:satMod val="350000"/>
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="0"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr">
-              <a:shade val="95000"/>
-              <a:satMod val="105000"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="38000"/>
+                <a:alpha val="63000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-          <a:scene3d>
-            <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
-            </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
-            </a:lightRig>
-          </a:scene3d>
-          <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
-          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="40000"/>
-                <a:satMod val="350000"/>
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="40000">
+            <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:tint val="45000"/>
-                <a:shade val="99000"/>
-                <a:satMod val="350000"/>
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="20000"/>
-                <a:satMod val="255000"/>
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
-          </a:path>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="80000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="30000"/>
-                <a:satMod val="200000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-          </a:path>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults>
-    <a:spDef>
-      <a:spPr/>
-      <a:bodyPr/>
-      <a:lstStyle/>
-      <a:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="3">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </a:style>
-    </a:spDef>
-    <a:lnDef>
-      <a:spPr/>
-      <a:bodyPr/>
-      <a:lstStyle/>
-      <a:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </a:style>
-    </a:lnDef>
-  </a:objectDefaults>
+  <a:objectDefaults/>
   <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
 </a:theme>
 </file>
 
@@ -382,6 +357,16 @@
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
+  <cols>
+    <col min="1" max="1" customWidth="1" width="24"/>
+    <col min="2" max="2" customWidth="1" width="29"/>
+    <col min="3" max="3" customWidth="1" width="30"/>
+    <col min="4" max="4" customWidth="1" width="29"/>
+    <col min="5" max="5" customWidth="1" width="11"/>
+    <col min="6" max="6" customWidth="1" width="20"/>
+    <col min="7" max="7" customWidth="1" width="20"/>
+    <col min="8" max="8" customWidth="1" width="300"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="str">
@@ -512,7 +497,7 @@
         <v>Abatement as a string</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" ht="31.5" customHeight="1">
       <c r="B16" t="str">
         <v>abatement[x]</v>
       </c>
@@ -969,7 +954,7 @@
         <v>Onsets as a string</v>
       </c>
     </row>
-    <row r="39">
+    <row r="39" ht="31.5" customHeight="1">
       <c r="B39" t="str">
         <v>onset[x]</v>
       </c>
@@ -3335,7 +3320,7 @@
         <v>Returns dispenses of this medicine resource</v>
       </c>
     </row>
-    <row r="160">
+    <row r="160" ht="31.5" customHeight="1">
       <c r="B160" t="str">
         <v>medication[x]</v>
       </c>
@@ -3595,7 +3580,7 @@
         <v>preparation | in-progress | cancelled | on-hold | completed | entered-in-error | stopped | declined | unknown</v>
       </c>
     </row>
-    <row r="173">
+    <row r="173" ht="31.5" customHeight="1">
       <c r="B173" t="str">
         <v>statusReason[x]</v>
       </c>
@@ -4377,7 +4362,7 @@
         <v>Return prescriptions for this medication reference</v>
       </c>
     </row>
-    <row r="213">
+    <row r="213" ht="31.5" customHeight="1">
       <c r="B213" t="str">
         <v>medication[x]</v>
       </c>
@@ -5379,7 +5364,7 @@
         <v>Search by subject - a patient</v>
       </c>
     </row>
-    <row r="264">
+    <row r="264" ht="31.5" customHeight="1">
       <c r="B264" t="str">
         <v>performed[x]</v>
       </c>
@@ -5713,6 +5698,16 @@
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
+  <cols>
+    <col min="1" max="1" customWidth="1" width="24"/>
+    <col min="2" max="2" customWidth="1" width="29"/>
+    <col min="3" max="3" customWidth="1" width="30"/>
+    <col min="4" max="4" customWidth="1" width="29"/>
+    <col min="5" max="5" customWidth="1" width="11"/>
+    <col min="6" max="6" customWidth="1" width="20"/>
+    <col min="7" max="7" customWidth="1" width="187.875"/>
+    <col min="8" max="8" customWidth="1" width="300"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="str">
@@ -6051,7 +6046,7 @@
         <v>focus</v>
       </c>
       <c r="E26" t="str">
-        <v>show</v>
+        <v>hide</v>
       </c>
       <c r="F26" t="str">
         <v>CodeableConcept</v>
@@ -6695,7 +6690,7 @@
         <v>status</v>
       </c>
       <c r="E57" t="str">
-        <v>hide</v>
+        <v>show</v>
       </c>
       <c r="F57" t="str">
         <v>code</v>
@@ -6738,6 +6733,16 @@
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
+  <cols>
+    <col min="1" max="1" customWidth="1" width="24"/>
+    <col min="2" max="2" customWidth="1" width="29"/>
+    <col min="3" max="3" customWidth="1" width="30"/>
+    <col min="4" max="4" customWidth="1" width="29"/>
+    <col min="5" max="5" customWidth="1" width="11"/>
+    <col min="6" max="6" customWidth="1" width="20"/>
+    <col min="7" max="7" customWidth="1" width="20"/>
+    <col min="8" max="8" customWidth="1" width="300"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="str">
@@ -7445,7 +7450,7 @@
         <v>(Measurement) Device</v>
       </c>
     </row>
-    <row r="45">
+    <row r="45" ht="31.5" customHeight="1">
       <c r="B45" t="str">
         <v>effective[x]</v>
       </c>
@@ -8062,7 +8067,7 @@
         <v>The value of the observation, if the value is a string, and also searches in CodeableConcept.text</v>
       </c>
     </row>
-    <row r="76">
+    <row r="76" ht="78.75" customHeight="1">
       <c r="B76" t="str">
         <v>value[x]</v>
       </c>
@@ -8898,6 +8903,16 @@
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
+  <cols>
+    <col min="1" max="1" customWidth="1" width="24"/>
+    <col min="2" max="2" customWidth="1" width="29"/>
+    <col min="3" max="3" customWidth="1" width="30"/>
+    <col min="4" max="4" customWidth="1" width="29"/>
+    <col min="5" max="5" customWidth="1" width="11"/>
+    <col min="6" max="6" customWidth="1" width="20"/>
+    <col min="7" max="7" customWidth="1" width="20"/>
+    <col min="8" max="8" customWidth="1" width="300"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="str">
@@ -11753,7 +11768,7 @@
         <v>When the charged service was applied</v>
       </c>
     </row>
-    <row r="152">
+    <row r="152" ht="31.5" customHeight="1">
       <c r="B152" t="str">
         <v>occurrence[x]</v>
       </c>
@@ -11973,7 +11988,7 @@
         <v>Price overriding the associated rules</v>
       </c>
     </row>
-    <row r="163">
+    <row r="163" ht="31.5" customHeight="1">
       <c r="B163" t="str">
         <v>product[x]</v>
       </c>
@@ -14524,7 +14539,7 @@
         <v>Abatement as a string</v>
       </c>
     </row>
-    <row r="294">
+    <row r="294" ht="31.5" customHeight="1">
       <c r="B294" t="str">
         <v>abatement[x]</v>
       </c>
@@ -14981,7 +14996,7 @@
         <v>Onsets as a string</v>
       </c>
     </row>
-    <row r="317">
+    <row r="317" ht="31.5" customHeight="1">
       <c r="B317" t="str">
         <v>onset[x]</v>
       </c>
@@ -15346,7 +15361,7 @@
         <v>Code for what is being requested/ordered</v>
       </c>
     </row>
-    <row r="336">
+    <row r="336" ht="31.5" customHeight="1">
       <c r="B336" t="str">
         <v>code[x]</v>
       </c>
@@ -15723,7 +15738,7 @@
         <v>Notes or comments</v>
       </c>
     </row>
-    <row r="355">
+    <row r="355" ht="31.5" customHeight="1">
       <c r="B355" t="str">
         <v>occurrence[x]</v>
       </c>
@@ -16445,7 +16460,7 @@
         <v>Search by subject</v>
       </c>
     </row>
-    <row r="392">
+    <row r="392" ht="31.5" customHeight="1">
       <c r="B392" t="str">
         <v>timing[x]</v>
       </c>
@@ -20399,7 +20414,7 @@
         <v>Business identifier</v>
       </c>
     </row>
-    <row r="596">
+    <row r="596" ht="31.5" customHeight="1">
       <c r="B596" t="str">
         <v>module[x]</v>
       </c>
@@ -22527,7 +22542,7 @@
         <v>Return administrations of this medication resource</v>
       </c>
     </row>
-    <row r="706">
+    <row r="706" ht="31.5" customHeight="1">
       <c r="B706" t="str">
         <v>medication[x]</v>
       </c>
@@ -23209,7 +23224,7 @@
         <v>Returns dispenses of this medicine resource</v>
       </c>
     </row>
-    <row r="741">
+    <row r="741" ht="31.5" customHeight="1">
       <c r="B741" t="str">
         <v>medication[x]</v>
       </c>
@@ -23469,7 +23484,7 @@
         <v>preparation | in-progress | cancelled | on-hold | completed | entered-in-error | stopped | declined | unknown</v>
       </c>
     </row>
-    <row r="754">
+    <row r="754" ht="31.5" customHeight="1">
       <c r="B754" t="str">
         <v>statusReason[x]</v>
       </c>
@@ -24251,7 +24266,7 @@
         <v>Return prescriptions for this medication reference</v>
       </c>
     </row>
-    <row r="794">
+    <row r="794" ht="31.5" customHeight="1">
       <c r="B794" t="str">
         <v>medication[x]</v>
       </c>
@@ -24993,7 +25008,7 @@
         <v>Return statements of this medication reference</v>
       </c>
     </row>
-    <row r="832">
+    <row r="832" ht="31.5" customHeight="1">
       <c r="B832" t="str">
         <v>medication[x]</v>
       </c>
@@ -25895,7 +25910,7 @@
         <v>(Measurement) Device</v>
       </c>
     </row>
-    <row r="878">
+    <row r="878" ht="31.5" customHeight="1">
       <c r="B878" t="str">
         <v>effective[x]</v>
       </c>
@@ -26512,7 +26527,7 @@
         <v>The value of the observation, if the value is a string, and also searches in CodeableConcept.text</v>
       </c>
     </row>
-    <row r="909">
+    <row r="909" ht="78.75" customHeight="1">
       <c r="B909" t="str">
         <v>value[x]</v>
       </c>
@@ -27916,7 +27931,7 @@
         <v>Search by subject - a patient</v>
       </c>
     </row>
-    <row r="981">
+    <row r="981" ht="31.5" customHeight="1">
       <c r="B981" t="str">
         <v>performed[x]</v>
       </c>
@@ -30227,7 +30242,7 @@
         <v>ServiceRequest</v>
       </c>
     </row>
-    <row r="1100">
+    <row r="1100" ht="31.5" customHeight="1">
       <c r="B1100" t="str">
         <v>asNeeded[x]</v>
       </c>
@@ -30784,7 +30799,7 @@
         <v>When service should occur</v>
       </c>
     </row>
-    <row r="1128">
+    <row r="1128" ht="31.5" customHeight="1">
       <c r="B1128" t="str">
         <v>occurrence[x]</v>
       </c>

--- a/src/conf/xlsx/column-and-parameter-descriptions_old.xlsx
+++ b/src/conf/xlsx/column-and-parameter-descriptions_old.xlsx
@@ -448,7 +448,7 @@
         <v>abatement-age</v>
       </c>
       <c r="E13" t="str">
-        <v>hide</v>
+        <v>show</v>
       </c>
       <c r="F13" t="str">
         <v>Age</v>
@@ -468,7 +468,7 @@
         <v>abatement-date</v>
       </c>
       <c r="E14" t="str">
-        <v>hide</v>
+        <v>show</v>
       </c>
       <c r="F14" t="str">
         <v>dateTime</v>
@@ -488,7 +488,7 @@
         <v>abatement-string</v>
       </c>
       <c r="E15" t="str">
-        <v>hide</v>
+        <v>show</v>
       </c>
       <c r="F15" t="str">
         <v>string</v>
@@ -528,7 +528,7 @@
         <v>asserter</v>
       </c>
       <c r="E17" t="str">
-        <v>hide</v>
+        <v>show</v>
       </c>
       <c r="F17" t="str">
         <v>reference</v>
@@ -568,7 +568,7 @@
         <v>body-site</v>
       </c>
       <c r="E19" t="str">
-        <v>hide</v>
+        <v>show</v>
       </c>
       <c r="F19" t="str">
         <v>CodeableConcept</v>
@@ -628,7 +628,7 @@
         <v>category</v>
       </c>
       <c r="E22" t="str">
-        <v>hide</v>
+        <v>show</v>
       </c>
       <c r="F22" t="str">
         <v>CodeableConcept</v>
@@ -748,7 +748,7 @@
         <v>encounter</v>
       </c>
       <c r="E28" t="str">
-        <v>hide</v>
+        <v>show</v>
       </c>
       <c r="F28" t="str">
         <v>reference</v>
@@ -768,7 +768,7 @@
         <v>evidence</v>
       </c>
       <c r="E29" t="str">
-        <v>hide</v>
+        <v>show</v>
       </c>
       <c r="F29" t="str">
         <v>CodeableConcept</v>
@@ -808,7 +808,7 @@
         <v>evidence-detail</v>
       </c>
       <c r="E31" t="str">
-        <v>hide</v>
+        <v>show</v>
       </c>
       <c r="F31" t="str">
         <v>reference</v>
@@ -845,7 +845,7 @@
         <v>identifier</v>
       </c>
       <c r="E33" t="str">
-        <v>hide</v>
+        <v>show</v>
       </c>
       <c r="F33" t="str">
         <v>Identifier</v>
@@ -905,7 +905,7 @@
         <v>onset-age</v>
       </c>
       <c r="E36" t="str">
-        <v>hide</v>
+        <v>show</v>
       </c>
       <c r="F36" t="str">
         <v>Age</v>
@@ -925,7 +925,7 @@
         <v>onset-date</v>
       </c>
       <c r="E37" t="str">
-        <v>hide</v>
+        <v>show</v>
       </c>
       <c r="F37" t="str">
         <v>dateTime</v>
@@ -945,7 +945,7 @@
         <v>onset-info</v>
       </c>
       <c r="E38" t="str">
-        <v>hide</v>
+        <v>show</v>
       </c>
       <c r="F38" t="str">
         <v>string</v>
@@ -985,7 +985,7 @@
         <v>patient</v>
       </c>
       <c r="E40" t="str">
-        <v>hide</v>
+        <v>show</v>
       </c>
       <c r="F40" t="str">
         <v>Patient</v>
@@ -1005,7 +1005,7 @@
         <v>recorded-date</v>
       </c>
       <c r="E41" t="str">
-        <v>hide</v>
+        <v>show</v>
       </c>
       <c r="F41" t="str">
         <v>date</v>
@@ -1085,7 +1085,7 @@
         <v>severity</v>
       </c>
       <c r="E45" t="str">
-        <v>hide</v>
+        <v>show</v>
       </c>
       <c r="F45" t="str">
         <v>CodeableConcept</v>
@@ -1125,7 +1125,7 @@
         <v>stage</v>
       </c>
       <c r="E47" t="str">
-        <v>hide</v>
+        <v>show</v>
       </c>
       <c r="F47" t="str">
         <v>CodeableConcept</v>
@@ -1165,7 +1165,7 @@
         <v>subject</v>
       </c>
       <c r="E49" t="str">
-        <v>hide</v>
+        <v>show</v>
       </c>
       <c r="F49" t="str">
         <v>reference</v>
@@ -1185,7 +1185,7 @@
         <v>verification-status</v>
       </c>
       <c r="E50" t="str">
-        <v>hide</v>
+        <v>show</v>
       </c>
       <c r="F50" t="str">
         <v>CodeableConcept</v>
@@ -1230,7 +1230,7 @@
         <v>authenticator</v>
       </c>
       <c r="E53" t="str">
-        <v>hide</v>
+        <v>show</v>
       </c>
       <c r="F53" t="str">
         <v>reference</v>
@@ -1270,7 +1270,7 @@
         <v>author</v>
       </c>
       <c r="E55" t="str">
-        <v>hide</v>
+        <v>show</v>
       </c>
       <c r="F55" t="str">
         <v>reference</v>
@@ -1310,7 +1310,7 @@
         <v>category</v>
       </c>
       <c r="E57" t="str">
-        <v>hide</v>
+        <v>show</v>
       </c>
       <c r="F57" t="str">
         <v>CodeableConcept</v>
@@ -1410,7 +1410,7 @@
         <v>custodian</v>
       </c>
       <c r="E62" t="str">
-        <v>hide</v>
+        <v>show</v>
       </c>
       <c r="F62" t="str">
         <v>reference</v>
@@ -1450,7 +1450,7 @@
         <v>date</v>
       </c>
       <c r="E64" t="str">
-        <v>hide</v>
+        <v>show</v>
       </c>
       <c r="F64" t="str">
         <v>date</v>
@@ -1490,7 +1490,7 @@
         <v>description</v>
       </c>
       <c r="E66" t="str">
-        <v>hide</v>
+        <v>show</v>
       </c>
       <c r="F66" t="str">
         <v>string</v>
@@ -1550,7 +1550,7 @@
         <v>encounter</v>
       </c>
       <c r="E69" t="str">
-        <v>hide</v>
+        <v>show</v>
       </c>
       <c r="F69" t="str">
         <v>reference</v>
@@ -1570,7 +1570,7 @@
         <v>event</v>
       </c>
       <c r="E70" t="str">
-        <v>hide</v>
+        <v>show</v>
       </c>
       <c r="F70" t="str">
         <v>CodeableConcept</v>
@@ -1590,7 +1590,7 @@
         <v>facility</v>
       </c>
       <c r="E71" t="str">
-        <v>hide</v>
+        <v>show</v>
       </c>
       <c r="F71" t="str">
         <v>CodeableConcept</v>
@@ -1610,7 +1610,7 @@
         <v>format</v>
       </c>
       <c r="E72" t="str">
-        <v>hide</v>
+        <v>show</v>
       </c>
       <c r="F72" t="str">
         <v>Coding</v>
@@ -1647,7 +1647,7 @@
         <v>identifier</v>
       </c>
       <c r="E74" t="str">
-        <v>hide</v>
+        <v>show</v>
       </c>
       <c r="F74" t="str">
         <v>Identifier</v>
@@ -1687,7 +1687,7 @@
         <v>language</v>
       </c>
       <c r="E76" t="str">
-        <v>hide</v>
+        <v>show</v>
       </c>
       <c r="F76" t="str">
         <v>code</v>
@@ -1707,7 +1707,7 @@
         <v>location</v>
       </c>
       <c r="E77" t="str">
-        <v>hide</v>
+        <v>show</v>
       </c>
       <c r="F77" t="str">
         <v>uri</v>
@@ -1747,7 +1747,7 @@
         <v>patient</v>
       </c>
       <c r="E79" t="str">
-        <v>hide</v>
+        <v>show</v>
       </c>
       <c r="F79" t="str">
         <v>Patient</v>
@@ -1767,7 +1767,7 @@
         <v>period</v>
       </c>
       <c r="E80" t="str">
-        <v>hide</v>
+        <v>show</v>
       </c>
       <c r="F80" t="str">
         <v>date</v>
@@ -1787,7 +1787,7 @@
         <v>related</v>
       </c>
       <c r="E81" t="str">
-        <v>hide</v>
+        <v>show</v>
       </c>
       <c r="F81" t="str">
         <v>reference</v>
@@ -1807,7 +1807,7 @@
         <v>relatesto</v>
       </c>
       <c r="E82" t="str">
-        <v>hide</v>
+        <v>show</v>
       </c>
       <c r="F82" t="str">
         <v>reference</v>
@@ -1847,7 +1847,7 @@
         <v>relation</v>
       </c>
       <c r="E84" t="str">
-        <v>hide</v>
+        <v>show</v>
       </c>
       <c r="F84" t="str">
         <v>code</v>
@@ -1867,7 +1867,7 @@
         <v>relationship</v>
       </c>
       <c r="E85" t="str">
-        <v>hide</v>
+        <v>show</v>
       </c>
       <c r="F85" t="str">
         <v>composite</v>
@@ -1887,7 +1887,7 @@
         <v>security-label</v>
       </c>
       <c r="E86" t="str">
-        <v>hide</v>
+        <v>show</v>
       </c>
       <c r="F86" t="str">
         <v>CodeableConcept</v>
@@ -1927,7 +1927,7 @@
         <v>setting</v>
       </c>
       <c r="E88" t="str">
-        <v>hide</v>
+        <v>show</v>
       </c>
       <c r="F88" t="str">
         <v>CodeableConcept</v>
@@ -2007,7 +2007,7 @@
         <v>subject</v>
       </c>
       <c r="E92" t="str">
-        <v>hide</v>
+        <v>show</v>
       </c>
       <c r="F92" t="str">
         <v>reference</v>
@@ -2072,7 +2072,7 @@
         <v>account</v>
       </c>
       <c r="E96" t="str">
-        <v>hide</v>
+        <v>show</v>
       </c>
       <c r="F96" t="str">
         <v>reference</v>
@@ -2132,7 +2132,7 @@
         <v>appointment</v>
       </c>
       <c r="E99" t="str">
-        <v>hide</v>
+        <v>show</v>
       </c>
       <c r="F99" t="str">
         <v>reference</v>
@@ -2152,7 +2152,7 @@
         <v>based-on</v>
       </c>
       <c r="E100" t="str">
-        <v>hide</v>
+        <v>show</v>
       </c>
       <c r="F100" t="str">
         <v>reference</v>
@@ -2252,7 +2252,7 @@
         <v>date</v>
       </c>
       <c r="E105" t="str">
-        <v>hide</v>
+        <v>show</v>
       </c>
       <c r="F105" t="str">
         <v>date</v>
@@ -2272,7 +2272,7 @@
         <v>diagnosis</v>
       </c>
       <c r="E106" t="str">
-        <v>hide</v>
+        <v>show</v>
       </c>
       <c r="F106" t="str">
         <v>reference</v>
@@ -2312,7 +2312,7 @@
         <v>episode-of-care</v>
       </c>
       <c r="E108" t="str">
-        <v>hide</v>
+        <v>show</v>
       </c>
       <c r="F108" t="str">
         <v>reference</v>
@@ -2389,7 +2389,7 @@
         <v>identifier</v>
       </c>
       <c r="E112" t="str">
-        <v>hide</v>
+        <v>show</v>
       </c>
       <c r="F112" t="str">
         <v>Identifier</v>
@@ -2449,7 +2449,7 @@
         <v>length</v>
       </c>
       <c r="E115" t="str">
-        <v>hide</v>
+        <v>show</v>
       </c>
       <c r="F115" t="str">
         <v>quantity</v>
@@ -2489,7 +2489,7 @@
         <v>location</v>
       </c>
       <c r="E117" t="str">
-        <v>hide</v>
+        <v>show</v>
       </c>
       <c r="F117" t="str">
         <v>reference</v>
@@ -2509,7 +2509,7 @@
         <v>location-period</v>
       </c>
       <c r="E118" t="str">
-        <v>hide</v>
+        <v>show</v>
       </c>
       <c r="F118" t="str">
         <v>date</v>
@@ -2529,7 +2529,7 @@
         <v>part-of</v>
       </c>
       <c r="E119" t="str">
-        <v>hide</v>
+        <v>show</v>
       </c>
       <c r="F119" t="str">
         <v>reference</v>
@@ -2569,7 +2569,7 @@
         <v>participant</v>
       </c>
       <c r="E121" t="str">
-        <v>hide</v>
+        <v>show</v>
       </c>
       <c r="F121" t="str">
         <v>reference</v>
@@ -2589,7 +2589,7 @@
         <v>participant-type</v>
       </c>
       <c r="E122" t="str">
-        <v>hide</v>
+        <v>show</v>
       </c>
       <c r="F122" t="str">
         <v>CodeableConcept</v>
@@ -2629,7 +2629,7 @@
         <v>patient</v>
       </c>
       <c r="E124" t="str">
-        <v>hide</v>
+        <v>show</v>
       </c>
       <c r="F124" t="str">
         <v>Patient</v>
@@ -2669,7 +2669,7 @@
         <v>practitioner</v>
       </c>
       <c r="E126" t="str">
-        <v>hide</v>
+        <v>show</v>
       </c>
       <c r="F126" t="str">
         <v>Practitioner</v>
@@ -2709,7 +2709,7 @@
         <v>reason-code</v>
       </c>
       <c r="E128" t="str">
-        <v>hide</v>
+        <v>show</v>
       </c>
       <c r="F128" t="str">
         <v>CodeableConcept</v>
@@ -2729,7 +2729,7 @@
         <v>reason-reference</v>
       </c>
       <c r="E129" t="str">
-        <v>hide</v>
+        <v>show</v>
       </c>
       <c r="F129" t="str">
         <v>reference</v>
@@ -2789,7 +2789,7 @@
         <v>service-provider</v>
       </c>
       <c r="E132" t="str">
-        <v>hide</v>
+        <v>show</v>
       </c>
       <c r="F132" t="str">
         <v>reference</v>
@@ -2849,7 +2849,7 @@
         <v>special-arrangement</v>
       </c>
       <c r="E135" t="str">
-        <v>hide</v>
+        <v>show</v>
       </c>
       <c r="F135" t="str">
         <v>CodeableConcept</v>
@@ -2949,7 +2949,7 @@
         <v>subject</v>
       </c>
       <c r="E140" t="str">
-        <v>hide</v>
+        <v>show</v>
       </c>
       <c r="F140" t="str">
         <v>reference</v>
@@ -3074,7 +3074,7 @@
         <v>context</v>
       </c>
       <c r="E147" t="str">
-        <v>hide</v>
+        <v>show</v>
       </c>
       <c r="F147" t="str">
         <v>reference</v>
@@ -3154,7 +3154,7 @@
         <v>destination</v>
       </c>
       <c r="E151" t="str">
-        <v>hide</v>
+        <v>show</v>
       </c>
       <c r="F151" t="str">
         <v>reference</v>
@@ -3311,7 +3311,7 @@
         <v>medication</v>
       </c>
       <c r="E159" t="str">
-        <v>hide</v>
+        <v>show</v>
       </c>
       <c r="F159" t="str">
         <v>Reference</v>
@@ -3391,7 +3391,7 @@
         <v>patient</v>
       </c>
       <c r="E163" t="str">
-        <v>hide</v>
+        <v>show</v>
       </c>
       <c r="F163" t="str">
         <v>Patient</v>
@@ -3431,7 +3431,7 @@
         <v>performer</v>
       </c>
       <c r="E165" t="str">
-        <v>hide</v>
+        <v>show</v>
       </c>
       <c r="F165" t="str">
         <v>reference</v>
@@ -3451,7 +3451,7 @@
         <v>prescription</v>
       </c>
       <c r="E166" t="str">
-        <v>hide</v>
+        <v>show</v>
       </c>
       <c r="F166" t="str">
         <v>reference</v>
@@ -3491,7 +3491,7 @@
         <v>receiver</v>
       </c>
       <c r="E168" t="str">
-        <v>hide</v>
+        <v>show</v>
       </c>
       <c r="F168" t="str">
         <v>reference</v>
@@ -3531,7 +3531,7 @@
         <v>responsibleparty</v>
       </c>
       <c r="E170" t="str">
-        <v>hide</v>
+        <v>show</v>
       </c>
       <c r="F170" t="str">
         <v>reference</v>
@@ -3631,7 +3631,7 @@
         <v>subject</v>
       </c>
       <c r="E175" t="str">
-        <v>hide</v>
+        <v>show</v>
       </c>
       <c r="F175" t="str">
         <v>reference</v>
@@ -3711,7 +3711,7 @@
         <v>type</v>
       </c>
       <c r="E179" t="str">
-        <v>hide</v>
+        <v>show</v>
       </c>
       <c r="F179" t="str">
         <v>CodeableConcept</v>
@@ -3731,7 +3731,7 @@
         <v>whenhandedover</v>
       </c>
       <c r="E180" t="str">
-        <v>hide</v>
+        <v>show</v>
       </c>
       <c r="F180" t="str">
         <v>date</v>
@@ -3771,7 +3771,7 @@
         <v>whenprepared</v>
       </c>
       <c r="E182" t="str">
-        <v>hide</v>
+        <v>show</v>
       </c>
       <c r="F182" t="str">
         <v>date</v>
@@ -3816,7 +3816,7 @@
         <v>authoredon</v>
       </c>
       <c r="E185" t="str">
-        <v>hide</v>
+        <v>show</v>
       </c>
       <c r="F185" t="str">
         <v>date</v>
@@ -3896,7 +3896,7 @@
         <v>category</v>
       </c>
       <c r="E189" t="str">
-        <v>hide</v>
+        <v>show</v>
       </c>
       <c r="F189" t="str">
         <v>CodeableConcept</v>
@@ -3956,7 +3956,7 @@
         <v>date</v>
       </c>
       <c r="E192" t="str">
-        <v>hide</v>
+        <v>show</v>
       </c>
       <c r="F192" t="str">
         <v>date</v>
@@ -4056,7 +4056,7 @@
         <v>encounter</v>
       </c>
       <c r="E197" t="str">
-        <v>hide</v>
+        <v>show</v>
       </c>
       <c r="F197" t="str">
         <v>reference</v>
@@ -4153,7 +4153,7 @@
         <v>identifier</v>
       </c>
       <c r="E202" t="str">
-        <v>hide</v>
+        <v>show</v>
       </c>
       <c r="F202" t="str">
         <v>Identifier</v>
@@ -4253,7 +4253,7 @@
         <v>intended-dispenser</v>
       </c>
       <c r="E207" t="str">
-        <v>hide</v>
+        <v>show</v>
       </c>
       <c r="F207" t="str">
         <v>reference</v>
@@ -4273,7 +4273,7 @@
         <v>intended-performer</v>
       </c>
       <c r="E208" t="str">
-        <v>hide</v>
+        <v>show</v>
       </c>
       <c r="F208" t="str">
         <v>reference</v>
@@ -4293,7 +4293,7 @@
         <v>intended-performertype</v>
       </c>
       <c r="E209" t="str">
-        <v>hide</v>
+        <v>show</v>
       </c>
       <c r="F209" t="str">
         <v>CodeableConcept</v>
@@ -4353,7 +4353,7 @@
         <v>medication</v>
       </c>
       <c r="E212" t="str">
-        <v>hide</v>
+        <v>show</v>
       </c>
       <c r="F212" t="str">
         <v>Reference</v>
@@ -4413,7 +4413,7 @@
         <v>patient</v>
       </c>
       <c r="E215" t="str">
-        <v>hide</v>
+        <v>show</v>
       </c>
       <c r="F215" t="str">
         <v>Patient</v>
@@ -4493,7 +4493,7 @@
         <v>priority</v>
       </c>
       <c r="E219" t="str">
-        <v>hide</v>
+        <v>show</v>
       </c>
       <c r="F219" t="str">
         <v>code</v>
@@ -4633,7 +4633,7 @@
         <v>requester</v>
       </c>
       <c r="E226" t="str">
-        <v>hide</v>
+        <v>show</v>
       </c>
       <c r="F226" t="str">
         <v>reference</v>
@@ -4733,7 +4733,7 @@
         <v>subject</v>
       </c>
       <c r="E231" t="str">
-        <v>hide</v>
+        <v>show</v>
       </c>
       <c r="F231" t="str">
         <v>reference</v>
@@ -4818,7 +4818,7 @@
         <v>based-on</v>
       </c>
       <c r="E236" t="str">
-        <v>hide</v>
+        <v>show</v>
       </c>
       <c r="F236" t="str">
         <v>reference</v>
@@ -4898,7 +4898,7 @@
         <v>category</v>
       </c>
       <c r="E240" t="str">
-        <v>hide</v>
+        <v>show</v>
       </c>
       <c r="F240" t="str">
         <v>CodeableConcept</v>
@@ -4998,7 +4998,7 @@
         <v>date</v>
       </c>
       <c r="E245" t="str">
-        <v>hide</v>
+        <v>show</v>
       </c>
       <c r="F245" t="str">
         <v>date</v>
@@ -5018,7 +5018,7 @@
         <v>encounter</v>
       </c>
       <c r="E246" t="str">
-        <v>hide</v>
+        <v>show</v>
       </c>
       <c r="F246" t="str">
         <v>reference</v>
@@ -5135,7 +5135,7 @@
         <v>identifier</v>
       </c>
       <c r="E252" t="str">
-        <v>hide</v>
+        <v>show</v>
       </c>
       <c r="F252" t="str">
         <v>Identifier</v>
@@ -5155,7 +5155,7 @@
         <v>instantiates-canonical</v>
       </c>
       <c r="E253" t="str">
-        <v>hide</v>
+        <v>show</v>
       </c>
       <c r="F253" t="str">
         <v>reference</v>
@@ -5175,7 +5175,7 @@
         <v>instantiates-uri</v>
       </c>
       <c r="E254" t="str">
-        <v>hide</v>
+        <v>show</v>
       </c>
       <c r="F254" t="str">
         <v>uri</v>
@@ -5255,7 +5255,7 @@
         <v>location</v>
       </c>
       <c r="E258" t="str">
-        <v>hide</v>
+        <v>show</v>
       </c>
       <c r="F258" t="str">
         <v>reference</v>
@@ -5315,7 +5315,7 @@
         <v>part-of</v>
       </c>
       <c r="E261" t="str">
-        <v>hide</v>
+        <v>show</v>
       </c>
       <c r="F261" t="str">
         <v>reference</v>
@@ -5355,7 +5355,7 @@
         <v>patient</v>
       </c>
       <c r="E263" t="str">
-        <v>hide</v>
+        <v>show</v>
       </c>
       <c r="F263" t="str">
         <v>Patient</v>
@@ -5415,7 +5415,7 @@
         <v>performer</v>
       </c>
       <c r="E266" t="str">
-        <v>hide</v>
+        <v>show</v>
       </c>
       <c r="F266" t="str">
         <v>reference</v>
@@ -5435,7 +5435,7 @@
         <v>reason-code</v>
       </c>
       <c r="E267" t="str">
-        <v>hide</v>
+        <v>show</v>
       </c>
       <c r="F267" t="str">
         <v>CodeableConcept</v>
@@ -5455,7 +5455,7 @@
         <v>reason-reference</v>
       </c>
       <c r="E268" t="str">
-        <v>hide</v>
+        <v>show</v>
       </c>
       <c r="F268" t="str">
         <v>reference</v>
@@ -5635,7 +5635,7 @@
         <v>subject</v>
       </c>
       <c r="E277" t="str">
-        <v>hide</v>
+        <v>show</v>
       </c>
       <c r="F277" t="str">
         <v>reference</v>
@@ -5986,7 +5986,7 @@
         <v>date</v>
       </c>
       <c r="E23" t="str">
-        <v>hide</v>
+        <v>show</v>
       </c>
       <c r="F23" t="str">
         <v>date</v>
@@ -6046,7 +6046,7 @@
         <v>focus</v>
       </c>
       <c r="E26" t="str">
-        <v>hide</v>
+        <v>show</v>
       </c>
       <c r="F26" t="str">
         <v>CodeableConcept</v>
@@ -6106,7 +6106,7 @@
         <v>keyword</v>
       </c>
       <c r="E29" t="str">
-        <v>hide</v>
+        <v>show</v>
       </c>
       <c r="F29" t="str">
         <v>CodeableConcept</v>
@@ -6146,7 +6146,7 @@
         <v>location</v>
       </c>
       <c r="E31" t="str">
-        <v>hide</v>
+        <v>show</v>
       </c>
       <c r="F31" t="str">
         <v>CodeableConcept</v>
@@ -6410,7 +6410,7 @@
         <v>partof</v>
       </c>
       <c r="E43" t="str">
-        <v>hide</v>
+        <v>show</v>
       </c>
       <c r="F43" t="str">
         <v>reference</v>
@@ -6510,7 +6510,7 @@
         <v>principalinvestigator</v>
       </c>
       <c r="E48" t="str">
-        <v>hide</v>
+        <v>show</v>
       </c>
       <c r="F48" t="str">
         <v>reference</v>
@@ -6570,7 +6570,7 @@
         <v>protocol</v>
       </c>
       <c r="E51" t="str">
-        <v>hide</v>
+        <v>show</v>
       </c>
       <c r="F51" t="str">
         <v>reference</v>
@@ -6650,7 +6650,7 @@
         <v>site</v>
       </c>
       <c r="E55" t="str">
-        <v>hide</v>
+        <v>show</v>
       </c>
       <c r="F55" t="str">
         <v>reference</v>
@@ -6670,7 +6670,7 @@
         <v>sponsor</v>
       </c>
       <c r="E56" t="str">
-        <v>hide</v>
+        <v>show</v>
       </c>
       <c r="F56" t="str">
         <v>reference</v>
@@ -6710,7 +6710,7 @@
         <v>title</v>
       </c>
       <c r="E58" t="str">
-        <v>hide</v>
+        <v>show</v>
       </c>
       <c r="F58" t="str">
         <v>string</v>
